--- a/cpu_cache/resources/benchmark_graphs.xlsx
+++ b/cpu_cache/resources/benchmark_graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repositories\personal\practical_theory\cpu_cache\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A1A028-4252-426E-9593-3F9F9AC187A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3121D3D5-93A6-49C4-902D-FE0E06F4FB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="1" xr2:uid="{E499B67C-BC19-4CD1-9931-5F7CE4D5ECCB}"/>
+    <workbookView xWindow="-60" yWindow="-21720" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{E499B67C-BC19-4CD1-9931-5F7CE4D5ECCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Searches" sheetId="1" r:id="rId1"/>
@@ -298,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -338,6 +338,40 @@
     <xf numFmtId="164" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -384,54 +418,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1165,7 +1151,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-AU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3002,63 +2988,63 @@
   <dimension ref="A2:U39"/>
   <sheetViews>
     <sheetView zoomScale="94" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="I3" s="21" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
+      <c r="I3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="23"/>
-      <c r="Q3" s="30" t="s">
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="39"/>
+      <c r="Q3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="32"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="48"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="6" t="s">
@@ -3067,19 +3053,19 @@
       <c r="I4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="48" t="s">
+      <c r="J4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="48" t="s">
+      <c r="K4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="48" t="s">
+      <c r="L4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="48" t="s">
+      <c r="M4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="48" t="s">
+      <c r="N4" s="24" t="s">
         <v>5</v>
       </c>
       <c r="O4" s="6" t="s">
@@ -3088,37 +3074,37 @@
       <c r="Q4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="R4" s="53" t="s">
+      <c r="R4" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="53" t="s">
+      <c r="S4" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="T4" s="53" t="s">
+      <c r="T4" s="29" t="s">
         <v>24</v>
       </c>
       <c r="U4" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>8</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="1">
         <f>AVERAGE(C5:G5)</f>
         <v>8.4039800000000007</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="1">
         <v>8.2942800000000005</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="1">
         <v>9.2549200000000003</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="1">
         <v>8.8649900000000006</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5">
         <v>8.6606699999999996</v>
       </c>
       <c r="G5" s="7">
@@ -3127,20 +3113,20 @@
       <c r="I5" s="3">
         <v>8</v>
       </c>
-      <c r="J5" s="41">
+      <c r="J5" s="1">
         <f>AVERAGE(K5:O5)</f>
         <v>22.856999999999999</v>
       </c>
-      <c r="K5" s="38">
+      <c r="K5">
         <v>22.4069</v>
       </c>
-      <c r="L5" s="38">
+      <c r="L5">
         <v>21.808399999999999</v>
       </c>
-      <c r="M5" s="38">
+      <c r="M5">
         <v>22.311699999999998</v>
       </c>
-      <c r="N5" s="38">
+      <c r="N5">
         <v>23.1767</v>
       </c>
       <c r="O5" s="7">
@@ -3149,16 +3135,16 @@
       <c r="Q5" s="12">
         <v>8</v>
       </c>
-      <c r="R5" s="54">
+      <c r="R5" s="30">
         <f>J5</f>
         <v>22.856999999999999</v>
       </c>
-      <c r="S5" s="54">
-        <f>B16</f>
+      <c r="S5" s="30">
+        <f t="shared" ref="S5:S12" si="0">B16</f>
         <v>13.261079999999998</v>
       </c>
-      <c r="T5" s="54">
-        <f>B27</f>
+      <c r="T5" s="30">
+        <f t="shared" ref="T5:T12" si="1">B27</f>
         <v>40.390940000000001</v>
       </c>
       <c r="U5" s="14">
@@ -3166,24 +3152,24 @@
         <v>8.4039800000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>16</v>
       </c>
-      <c r="B6" s="41">
-        <f t="shared" ref="B6:B12" si="0">AVERAGE(C6:G6)</f>
+      <c r="B6" s="1">
+        <f t="shared" ref="B6:B12" si="2">AVERAGE(C6:G6)</f>
         <v>9.812424</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="1">
         <v>6.7941000000000003</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="1">
         <v>11.8957</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="1">
         <v>8.9861199999999997</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6">
         <v>10.700799999999999</v>
       </c>
       <c r="G6" s="7">
@@ -3192,20 +3178,20 @@
       <c r="I6" s="3">
         <v>16</v>
       </c>
-      <c r="J6" s="41">
-        <f t="shared" ref="J6:J12" si="1">AVERAGE(K6:O6)</f>
+      <c r="J6" s="1">
+        <f t="shared" ref="J6:J12" si="3">AVERAGE(K6:O6)</f>
         <v>21.308720000000001</v>
       </c>
-      <c r="K6" s="38">
+      <c r="K6">
         <v>21.999199999999998</v>
       </c>
-      <c r="L6" s="38">
+      <c r="L6">
         <v>21.732800000000001</v>
       </c>
-      <c r="M6" s="38">
+      <c r="M6">
         <v>17.124300000000002</v>
       </c>
-      <c r="N6" s="38">
+      <c r="N6">
         <v>23.392700000000001</v>
       </c>
       <c r="O6" s="7">
@@ -3214,41 +3200,41 @@
       <c r="Q6" s="12">
         <v>16</v>
       </c>
-      <c r="R6" s="54">
-        <f t="shared" ref="R6:R12" si="2">J6</f>
+      <c r="R6" s="30">
+        <f t="shared" ref="R6:R12" si="4">J6</f>
         <v>21.308720000000001</v>
       </c>
-      <c r="S6" s="54">
-        <f>B17</f>
+      <c r="S6" s="30">
+        <f t="shared" si="0"/>
         <v>15.185480000000002</v>
       </c>
-      <c r="T6" s="54">
-        <f>B28</f>
+      <c r="T6" s="30">
+        <f t="shared" si="1"/>
         <v>51.746600000000001</v>
       </c>
       <c r="U6" s="14">
-        <f t="shared" ref="U6:U12" si="3">B6</f>
+        <f t="shared" ref="U6:U12" si="5">B6</f>
         <v>9.812424</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>32</v>
       </c>
-      <c r="B7" s="41">
-        <f t="shared" si="0"/>
+      <c r="B7" s="1">
+        <f t="shared" si="2"/>
         <v>25.360410000000002</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="1">
         <v>9.0266500000000001</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="1">
         <v>26.682200000000002</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="1">
         <v>31.992799999999999</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7">
         <v>11.6897</v>
       </c>
       <c r="G7" s="7">
@@ -3257,20 +3243,20 @@
       <c r="I7" s="3">
         <v>32</v>
       </c>
-      <c r="J7" s="41">
-        <f t="shared" si="1"/>
+      <c r="J7" s="1">
+        <f t="shared" si="3"/>
         <v>22.27758</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7">
         <v>21.978200000000001</v>
       </c>
-      <c r="L7" s="38">
+      <c r="L7">
         <v>22.126799999999999</v>
       </c>
-      <c r="M7" s="38">
+      <c r="M7">
         <v>22.172000000000001</v>
       </c>
-      <c r="N7" s="38">
+      <c r="N7">
         <v>23.145600000000002</v>
       </c>
       <c r="O7" s="7">
@@ -3279,41 +3265,41 @@
       <c r="Q7" s="12">
         <v>32</v>
       </c>
-      <c r="R7" s="54">
-        <f t="shared" si="2"/>
+      <c r="R7" s="30">
+        <f t="shared" si="4"/>
         <v>22.27758</v>
       </c>
-      <c r="S7" s="54">
-        <f>B18</f>
+      <c r="S7" s="30">
+        <f t="shared" si="0"/>
         <v>17.720580000000002</v>
       </c>
-      <c r="T7" s="54">
-        <f>B29</f>
+      <c r="T7" s="30">
+        <f t="shared" si="1"/>
         <v>61.909760000000006</v>
       </c>
       <c r="U7" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>25.360410000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>64</v>
       </c>
-      <c r="B8" s="41">
-        <f t="shared" si="0"/>
+      <c r="B8" s="1">
+        <f t="shared" si="2"/>
         <v>49.677419999999998</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="1">
         <v>54.897799999999997</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="1">
         <v>51.369199999999999</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="1">
         <v>25.666899999999998</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8">
         <v>105.004</v>
       </c>
       <c r="G8" s="7">
@@ -3322,20 +3308,20 @@
       <c r="I8" s="3">
         <v>64</v>
       </c>
-      <c r="J8" s="41">
-        <f t="shared" si="1"/>
+      <c r="J8" s="1">
+        <f t="shared" si="3"/>
         <v>21.049500000000002</v>
       </c>
-      <c r="K8" s="38">
+      <c r="K8">
         <v>21.315300000000001</v>
       </c>
-      <c r="L8" s="38">
+      <c r="L8">
         <v>21.9815</v>
       </c>
-      <c r="M8" s="38">
+      <c r="M8">
         <v>21.906500000000001</v>
       </c>
-      <c r="N8" s="38">
+      <c r="N8">
         <v>17.562799999999999</v>
       </c>
       <c r="O8" s="7">
@@ -3344,41 +3330,41 @@
       <c r="Q8" s="12">
         <v>64</v>
       </c>
-      <c r="R8" s="54">
-        <f t="shared" si="2"/>
+      <c r="R8" s="30">
+        <f t="shared" si="4"/>
         <v>21.049500000000002</v>
       </c>
-      <c r="S8" s="54">
-        <f>B19</f>
+      <c r="S8" s="30">
+        <f t="shared" si="0"/>
         <v>26.592779999999998</v>
       </c>
-      <c r="T8" s="54">
-        <f>B30</f>
+      <c r="T8" s="30">
+        <f t="shared" si="1"/>
         <v>65.692080000000004</v>
       </c>
       <c r="U8" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>49.677419999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>128</v>
       </c>
-      <c r="B9" s="41">
-        <f t="shared" si="0"/>
+      <c r="B9" s="1">
+        <f t="shared" si="2"/>
         <v>78.944580000000002</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="1">
         <v>64.745800000000003</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="1">
         <v>44.065300000000001</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="1">
         <v>85.800799999999995</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9">
         <v>163.02099999999999</v>
       </c>
       <c r="G9" s="7">
@@ -3387,20 +3373,20 @@
       <c r="I9" s="3">
         <v>128</v>
       </c>
-      <c r="J9" s="41">
-        <f t="shared" si="1"/>
+      <c r="J9" s="1">
+        <f t="shared" si="3"/>
         <v>22.284960000000005</v>
       </c>
-      <c r="K9" s="38">
+      <c r="K9">
         <v>21.253299999999999</v>
       </c>
-      <c r="L9" s="38">
+      <c r="L9">
         <v>21.8064</v>
       </c>
-      <c r="M9" s="38">
+      <c r="M9">
         <v>21.818100000000001</v>
       </c>
-      <c r="N9" s="38">
+      <c r="N9">
         <v>23.241700000000002</v>
       </c>
       <c r="O9" s="7">
@@ -3409,41 +3395,41 @@
       <c r="Q9" s="12">
         <v>128</v>
       </c>
-      <c r="R9" s="54">
-        <f t="shared" si="2"/>
+      <c r="R9" s="30">
+        <f t="shared" si="4"/>
         <v>22.284960000000005</v>
       </c>
-      <c r="S9" s="54">
-        <f>B20</f>
+      <c r="S9" s="30">
+        <f t="shared" si="0"/>
         <v>27.129439999999999</v>
       </c>
-      <c r="T9" s="54">
-        <f>B31</f>
+      <c r="T9" s="30">
+        <f t="shared" si="1"/>
         <v>68.185339999999997</v>
       </c>
       <c r="U9" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>78.944580000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>256</v>
       </c>
-      <c r="B10" s="41">
-        <f t="shared" si="0"/>
+      <c r="B10" s="1">
+        <f t="shared" si="2"/>
         <v>161.36610000000002</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="1">
         <v>106.633</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="1">
         <v>177.88</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="1">
         <v>117.94199999999999</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10">
         <v>320.447</v>
       </c>
       <c r="G10" s="7">
@@ -3452,20 +3438,20 @@
       <c r="I10" s="3">
         <v>256</v>
       </c>
-      <c r="J10" s="41">
-        <f t="shared" si="1"/>
+      <c r="J10" s="1">
+        <f t="shared" si="3"/>
         <v>21.955020000000001</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10">
         <v>21.774000000000001</v>
       </c>
-      <c r="L10" s="38">
+      <c r="L10">
         <v>21.720800000000001</v>
       </c>
-      <c r="M10" s="38">
+      <c r="M10">
         <v>22.0411</v>
       </c>
-      <c r="N10" s="38">
+      <c r="N10">
         <v>22.865300000000001</v>
       </c>
       <c r="O10" s="7">
@@ -3474,41 +3460,41 @@
       <c r="Q10" s="12">
         <v>256</v>
       </c>
-      <c r="R10" s="54">
-        <f t="shared" si="2"/>
+      <c r="R10" s="30">
+        <f t="shared" si="4"/>
         <v>21.955020000000001</v>
       </c>
-      <c r="S10" s="54">
-        <f>B21</f>
+      <c r="S10" s="30">
+        <f t="shared" si="0"/>
         <v>30.032080000000001</v>
       </c>
-      <c r="T10" s="54">
-        <f>B32</f>
+      <c r="T10" s="30">
+        <f t="shared" si="1"/>
         <v>71.148020000000002</v>
       </c>
       <c r="U10" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>161.36610000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>512</v>
       </c>
-      <c r="B11" s="41">
-        <f t="shared" si="0"/>
+      <c r="B11" s="1">
+        <f t="shared" si="2"/>
         <v>333.5018</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="1">
         <v>255.57900000000001</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="1">
         <v>170.00399999999999</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="1">
         <v>357.839</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11">
         <v>438.73399999999998</v>
       </c>
       <c r="G11" s="7">
@@ -3517,20 +3503,20 @@
       <c r="I11" s="3">
         <v>512</v>
       </c>
-      <c r="J11" s="41">
-        <f t="shared" si="1"/>
+      <c r="J11" s="1">
+        <f t="shared" si="3"/>
         <v>21.83306</v>
       </c>
-      <c r="K11" s="38">
+      <c r="K11">
         <v>21.724599999999999</v>
       </c>
-      <c r="L11" s="38">
+      <c r="L11">
         <v>21.3627</v>
       </c>
-      <c r="M11" s="38">
+      <c r="M11">
         <v>21.9618</v>
       </c>
-      <c r="N11" s="38">
+      <c r="N11">
         <v>21.943899999999999</v>
       </c>
       <c r="O11" s="7">
@@ -3539,29 +3525,29 @@
       <c r="Q11" s="12">
         <v>512</v>
       </c>
-      <c r="R11" s="54">
-        <f t="shared" si="2"/>
+      <c r="R11" s="30">
+        <f t="shared" si="4"/>
         <v>21.83306</v>
       </c>
-      <c r="S11" s="54">
-        <f>B22</f>
+      <c r="S11" s="30">
+        <f t="shared" si="0"/>
         <v>34.328320000000005</v>
       </c>
-      <c r="T11" s="54">
-        <f>B33</f>
+      <c r="T11" s="30">
+        <f t="shared" si="1"/>
         <v>72.961939999999998</v>
       </c>
       <c r="U11" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>333.5018</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>1024</v>
       </c>
       <c r="B12" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>492.76099999999997</v>
       </c>
       <c r="C12" s="5">
@@ -3583,7 +3569,7 @@
         <v>1024</v>
       </c>
       <c r="J12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>21.936219999999999</v>
       </c>
       <c r="K12" s="8">
@@ -3605,237 +3591,237 @@
         <v>1024</v>
       </c>
       <c r="R12" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>21.936219999999999</v>
       </c>
       <c r="S12" s="15">
-        <f>B23</f>
+        <f t="shared" si="0"/>
         <v>35.497059999999998</v>
       </c>
       <c r="T12" s="15">
-        <f>B34</f>
+        <f t="shared" si="1"/>
         <v>73.581199999999995</v>
       </c>
       <c r="U12" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>492.76099999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="27" t="s">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="29"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="48" t="s">
+      <c r="E15" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="48" t="s">
+      <c r="F15" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>8</v>
       </c>
-      <c r="B16" s="41">
+      <c r="B16" s="1">
         <f>AVERAGE(C16:G16)</f>
         <v>13.261079999999998</v>
       </c>
-      <c r="C16" s="38">
+      <c r="C16">
         <v>12.249000000000001</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16">
         <v>12.793900000000001</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16">
         <v>14.0152</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16">
         <v>14.4406</v>
       </c>
       <c r="G16" s="7">
         <v>12.806699999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="41">
-        <f t="shared" ref="B17:B23" si="4">AVERAGE(C17:G17)</f>
+      <c r="B17" s="1">
+        <f t="shared" ref="B17:B23" si="6">AVERAGE(C17:G17)</f>
         <v>15.185480000000002</v>
       </c>
-      <c r="C17" s="38">
+      <c r="C17">
         <v>14.6595</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17">
         <v>14.2713</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17">
         <v>15.3164</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17">
         <v>16.303699999999999</v>
       </c>
       <c r="G17" s="7">
         <v>15.3765</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>32</v>
       </c>
-      <c r="B18" s="41">
-        <f t="shared" si="4"/>
+      <c r="B18" s="1">
+        <f t="shared" si="6"/>
         <v>17.720580000000002</v>
       </c>
-      <c r="C18" s="38">
+      <c r="C18">
         <v>17.14</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18">
         <v>17.7258</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18">
         <v>17.198699999999999</v>
       </c>
-      <c r="F18" s="38">
+      <c r="F18">
         <v>18.599900000000002</v>
       </c>
       <c r="G18" s="7">
         <v>17.938500000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>64</v>
       </c>
-      <c r="B19" s="41">
-        <f t="shared" si="4"/>
+      <c r="B19" s="1">
+        <f t="shared" si="6"/>
         <v>26.592779999999998</v>
       </c>
-      <c r="C19" s="38">
+      <c r="C19">
         <v>20.2849</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19">
         <v>20.5639</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19">
         <v>18.6935</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19">
         <v>34.4604</v>
       </c>
       <c r="G19" s="7">
         <v>38.961199999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>128</v>
       </c>
-      <c r="B20" s="41">
-        <f t="shared" si="4"/>
+      <c r="B20" s="1">
+        <f t="shared" si="6"/>
         <v>27.129439999999999</v>
       </c>
-      <c r="C20" s="38">
+      <c r="C20">
         <v>21.392700000000001</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20">
         <v>22.096900000000002</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20">
         <v>22.0364</v>
       </c>
-      <c r="F20" s="38">
+      <c r="F20">
         <v>22.5075</v>
       </c>
       <c r="G20" s="7">
         <v>47.613700000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>256</v>
       </c>
-      <c r="B21" s="41">
-        <f t="shared" si="4"/>
+      <c r="B21" s="1">
+        <f t="shared" si="6"/>
         <v>30.032080000000001</v>
       </c>
-      <c r="C21" s="38">
+      <c r="C21">
         <v>23.831900000000001</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21">
         <v>25.935700000000001</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21">
         <v>24.5093</v>
       </c>
-      <c r="F21" s="38">
+      <c r="F21">
         <v>25.1282</v>
       </c>
       <c r="G21" s="7">
         <v>50.755299999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>512</v>
       </c>
-      <c r="B22" s="41">
-        <f t="shared" si="4"/>
+      <c r="B22" s="1">
+        <f t="shared" si="6"/>
         <v>34.328320000000005</v>
       </c>
-      <c r="C22" s="38">
+      <c r="C22">
         <v>26.5427</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22">
         <v>27.209800000000001</v>
       </c>
-      <c r="E22" s="38">
+      <c r="E22">
         <v>26.632400000000001</v>
       </c>
-      <c r="F22" s="38">
+      <c r="F22">
         <v>28.5275</v>
       </c>
       <c r="G22" s="7">
         <v>62.729199999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>1024</v>
       </c>
       <c r="B23" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>35.497059999999998</v>
       </c>
       <c r="C23" s="8">
@@ -3854,215 +3840,215 @@
         <v>59.462499999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="24" t="s">
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="42"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="48" t="s">
+      <c r="D26" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="48" t="s">
+      <c r="E26" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="48" t="s">
+      <c r="F26" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>8</v>
       </c>
-      <c r="B27" s="41">
+      <c r="B27" s="1">
         <f>AVERAGE(C27:G27)</f>
         <v>40.390940000000001</v>
       </c>
-      <c r="C27" s="38">
+      <c r="C27">
         <v>44.999200000000002</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27">
         <v>36.922899999999998</v>
       </c>
-      <c r="E27" s="38">
+      <c r="E27">
         <v>46.383000000000003</v>
       </c>
-      <c r="F27" s="38">
+      <c r="F27">
         <v>35.8992</v>
       </c>
       <c r="G27" s="7">
         <v>37.750399999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>16</v>
       </c>
-      <c r="B28" s="41">
-        <f t="shared" ref="B28:B34" si="5">AVERAGE(C28:G28)</f>
+      <c r="B28" s="1">
+        <f t="shared" ref="B28:B34" si="7">AVERAGE(C28:G28)</f>
         <v>51.746600000000001</v>
       </c>
-      <c r="C28" s="38">
+      <c r="C28">
         <v>53.283299999999997</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D28">
         <v>55.769599999999997</v>
       </c>
-      <c r="E28" s="38">
+      <c r="E28">
         <v>46.342199999999998</v>
       </c>
-      <c r="F28" s="38">
+      <c r="F28">
         <v>51.035400000000003</v>
       </c>
       <c r="G28" s="7">
         <v>52.302500000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>32</v>
       </c>
-      <c r="B29" s="41">
-        <f t="shared" si="5"/>
+      <c r="B29" s="1">
+        <f t="shared" si="7"/>
         <v>61.909760000000006</v>
       </c>
-      <c r="C29" s="38">
+      <c r="C29">
         <v>59.773499999999999</v>
       </c>
-      <c r="D29" s="38">
+      <c r="D29">
         <v>63.592599999999997</v>
       </c>
-      <c r="E29" s="38">
+      <c r="E29">
         <v>82.158100000000005</v>
       </c>
-      <c r="F29" s="38">
+      <c r="F29">
         <v>54.6723</v>
       </c>
       <c r="G29" s="7">
         <v>49.3523</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>64</v>
       </c>
-      <c r="B30" s="41">
-        <f t="shared" si="5"/>
+      <c r="B30" s="1">
+        <f t="shared" si="7"/>
         <v>65.692080000000004</v>
       </c>
-      <c r="C30" s="38">
+      <c r="C30">
         <v>53.6509</v>
       </c>
-      <c r="D30" s="38">
+      <c r="D30">
         <v>57.485700000000001</v>
       </c>
-      <c r="E30" s="38">
+      <c r="E30">
         <v>116.93899999999999</v>
       </c>
-      <c r="F30" s="38">
+      <c r="F30">
         <v>52.0837</v>
       </c>
       <c r="G30" s="7">
         <v>48.301099999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>128</v>
       </c>
-      <c r="B31" s="41">
-        <f t="shared" si="5"/>
+      <c r="B31" s="1">
+        <f t="shared" si="7"/>
         <v>68.185339999999997</v>
       </c>
-      <c r="C31" s="38">
+      <c r="C31">
         <v>67.2851</v>
       </c>
-      <c r="D31" s="38">
+      <c r="D31">
         <v>57.936199999999999</v>
       </c>
-      <c r="E31" s="38">
+      <c r="E31">
         <v>86.977199999999996</v>
       </c>
-      <c r="F31" s="38">
+      <c r="F31">
         <v>54.561</v>
       </c>
       <c r="G31" s="7">
         <v>74.167199999999994</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>256</v>
       </c>
-      <c r="B32" s="41">
-        <f t="shared" si="5"/>
+      <c r="B32" s="1">
+        <f t="shared" si="7"/>
         <v>71.148020000000002</v>
       </c>
-      <c r="C32" s="38">
+      <c r="C32">
         <v>72.858999999999995</v>
       </c>
-      <c r="D32" s="38">
+      <c r="D32">
         <v>57.9206</v>
       </c>
-      <c r="E32" s="38">
+      <c r="E32">
         <v>103.224</v>
       </c>
-      <c r="F32" s="38">
+      <c r="F32">
         <v>63.065199999999997</v>
       </c>
       <c r="G32" s="7">
         <v>58.671300000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>512</v>
       </c>
-      <c r="B33" s="41">
-        <f t="shared" si="5"/>
+      <c r="B33" s="1">
+        <f t="shared" si="7"/>
         <v>72.961939999999998</v>
       </c>
-      <c r="C33" s="38">
+      <c r="C33">
         <v>65.100399999999993</v>
       </c>
-      <c r="D33" s="38">
+      <c r="D33">
         <v>66.180999999999997</v>
       </c>
-      <c r="E33" s="38">
+      <c r="E33">
         <v>83.810299999999998</v>
       </c>
-      <c r="F33" s="38">
+      <c r="F33">
         <v>74.008700000000005</v>
       </c>
       <c r="G33" s="7">
         <v>75.709299999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>1024</v>
       </c>
       <c r="B34" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>73.581199999999995</v>
       </c>
       <c r="C34" s="8">
@@ -4081,7 +4067,7 @@
         <v>77.015600000000006</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G39" t="s">
         <v>10</v>
       </c>
@@ -4209,348 +4195,269 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E79840-7E37-4FD1-A0E2-025D3F8BA986}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S41" sqref="S41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="8" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="33"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="49" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="1">
         <f>AVERAGE(D4:H4)</f>
         <v>2.1089600000000002</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="1">
         <v>2.10039</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="1">
         <v>2.12622</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="1">
         <v>2.1176599999999999</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="1">
         <v>2.1197900000000001</v>
       </c>
-      <c r="H4" s="44">
+      <c r="H4" s="22">
         <v>2.08074</v>
       </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="50" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="1">
         <f>AVERAGE(D5:H5)</f>
         <v>3.2883140000000006</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="1">
         <v>3.3176800000000002</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="1">
         <v>3.21225</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="1">
         <v>3.2563599999999999</v>
       </c>
-      <c r="G5" s="43">
+      <c r="G5" s="1">
         <v>3.43241</v>
       </c>
-      <c r="H5" s="44">
+      <c r="H5" s="22">
         <v>3.2228699999999999</v>
       </c>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="51" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="1">
         <f>AVERAGE(D6:H6)</f>
         <v>14.989859999999998</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="1">
         <v>21.845600000000001</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="1">
         <v>12.3703</v>
       </c>
-      <c r="F6" s="43">
+      <c r="F6" s="1">
         <v>13.0207</v>
       </c>
-      <c r="G6" s="43">
+      <c r="G6" s="1">
         <v>15.080399999999999</v>
       </c>
-      <c r="H6" s="44">
+      <c r="H6" s="22">
         <v>12.632300000000001</v>
       </c>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="52" t="s">
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="5">
         <f>AVERAGE(D7:H7)</f>
         <v>100.01662000000002</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="5">
         <v>113.196</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="5">
         <v>110.298</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="5">
         <v>79.442300000000003</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="5">
         <v>110.401</v>
       </c>
-      <c r="H7" s="46">
+      <c r="H7" s="23">
         <v>86.745800000000003</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="38"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="38"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="38"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="38"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="38"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="38"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="38"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="17"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="17"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="17"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="17"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="17"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="17"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="17"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="17"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="17"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
